--- a/house_invest/Buyer_Investment_Calculator.xlsx
+++ b/house_invest/Buyer_Investment_Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx173\Desktop\MCP\house_invest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE17018-0BDD-4474-9A1E-FBF359861F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30638E9-826E-455D-811B-63EA0A31BC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
   <si>
     <t>物业地址</t>
   </si>
@@ -382,10 +382,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>143k at 2011</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>195K/L140K, 55K</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -398,15 +394,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>可能需要40K的翻修</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1卧1卫 / 42m</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">可能需要30K的翻修, Sold at 2011 - 143K, Sold at 1997 - 170K </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能需要30K的翻修</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -832,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1398,22 +1394,22 @@
         <v>178507.625</v>
       </c>
       <c r="O8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="R8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -1444,9 +1440,6 @@
       <c r="N9" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">

--- a/house_invest/Buyer_Investment_Calculator.xlsx
+++ b/house_invest/Buyer_Investment_Calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx173\Desktop\MCP\house_invest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30638E9-826E-455D-811B-63EA0A31BC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5ED548-7D61-40BD-8EBD-D7A0ABF82A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
   <si>
     <t>物业地址</t>
   </si>
@@ -323,10 +323,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>155K / 2卧2卫(Dual-Key) /?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.trademe.co.nz/a/property/residential/sale/auckland/auckland-city/city-centre/listing/5377985788</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -403,6 +399,22 @@
   </si>
   <si>
     <t>可能需要30K的翻修</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>155K / 2卧2卫(Dual-Key) /56m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, 92000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, 17500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12G/ 33 Mount Street</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -828,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -913,14 +925,14 @@
     </row>
     <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4">
-        <v>550</v>
+        <v>434</v>
       </c>
       <c r="C2" s="4">
         <f>B2*46</f>
-        <v>25300</v>
+        <v>19964</v>
       </c>
       <c r="D2" s="4">
         <v>5368.2</v>
@@ -935,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4">
         <f>SUM(D2:H2)</f>
-        <v>11503.4</v>
+        <v>6503.4</v>
       </c>
       <c r="J2" s="4">
         <f>C2-I2</f>
-        <v>13796.6</v>
+        <v>13460.6</v>
       </c>
       <c r="K2" s="5">
         <f>J2/0.06</f>
-        <v>229943.33333333334</v>
+        <v>224343.33333333334</v>
       </c>
       <c r="L2" s="5">
         <f>J2/0.065</f>
-        <v>212255.38461538462</v>
+        <v>207086.15384615384</v>
       </c>
       <c r="M2" s="5">
         <f>J2/0.07</f>
-        <v>197094.28571428571</v>
+        <v>192294.28571428571</v>
       </c>
       <c r="N2" s="5">
         <f>J2/0.08</f>
-        <v>172457.5</v>
+        <v>168257.5</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>68</v>
@@ -1112,7 +1124,7 @@
         <v>75</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>76</v>
@@ -1124,7 +1136,7 @@
         <v>78</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -1196,7 +1208,7 @@
         <v>83</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -1250,22 +1262,22 @@
         <v>167021.125</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>74</v>
@@ -1273,7 +1285,7 @@
     </row>
     <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2">
         <v>475</v>
@@ -1325,19 +1337,19 @@
         <v>2006</v>
       </c>
       <c r="P7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>74</v>
@@ -1345,7 +1357,7 @@
     </row>
     <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2">
         <v>420</v>
@@ -1394,82 +1406,121 @@
         <v>178507.625</v>
       </c>
       <c r="O8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="2">
+        <v>390</v>
+      </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
+        <v>17940</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6065</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1193</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7258</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10682</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>178033.33333333334</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>164338.46153846153</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>152600</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>133525</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B10" s="2">
+        <v>650</v>
+      </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29900</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>200</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27700</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>461666.66666666669</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>426153.84615384613</v>
       </c>
       <c r="M10" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>395714.28571428568</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>346250</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">

--- a/house_invest/Buyer_Investment_Calculator.xlsx
+++ b/house_invest/Buyer_Investment_Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx173\Desktop\MCP\house_invest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5ED548-7D61-40BD-8EBD-D7A0ABF82A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9AA086-1E6F-40CB-99A9-1DC42C19B46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -841,7 +841,7 @@
   <dimension ref="A1:U85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -928,11 +928,11 @@
         <v>96</v>
       </c>
       <c r="B2" s="4">
-        <v>434</v>
+        <v>600</v>
       </c>
       <c r="C2" s="4">
         <f>B2*46</f>
-        <v>19964</v>
+        <v>27600</v>
       </c>
       <c r="D2" s="4">
         <v>5368.2</v>
@@ -955,23 +955,23 @@
       </c>
       <c r="J2" s="4">
         <f>C2-I2</f>
-        <v>13460.6</v>
+        <v>21096.6</v>
       </c>
       <c r="K2" s="5">
         <f>J2/0.06</f>
-        <v>224343.33333333334</v>
+        <v>351610</v>
       </c>
       <c r="L2" s="5">
         <f>J2/0.065</f>
-        <v>207086.15384615384</v>
+        <v>324563.07692307688</v>
       </c>
       <c r="M2" s="5">
         <f>J2/0.07</f>
-        <v>192294.28571428571</v>
+        <v>301379.99999999994</v>
       </c>
       <c r="N2" s="5">
         <f>J2/0.08</f>
-        <v>168257.5</v>
+        <v>263707.5</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>68</v>
@@ -1000,11 +1000,11 @@
         <v>63</v>
       </c>
       <c r="B3" s="4">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="C3" s="4">
         <f>B3*46</f>
-        <v>24380</v>
+        <v>23000</v>
       </c>
       <c r="D3" s="4">
         <v>5708</v>
@@ -1027,23 +1027,23 @@
       </c>
       <c r="J3" s="4">
         <f>C3-I3</f>
-        <v>12554</v>
+        <v>11174</v>
       </c>
       <c r="K3" s="5">
         <f>J3/0.06</f>
-        <v>209233.33333333334</v>
+        <v>186233.33333333334</v>
       </c>
       <c r="L3" s="5">
         <f>J3/0.065</f>
-        <v>193138.46153846153</v>
+        <v>171907.69230769231</v>
       </c>
       <c r="M3" s="5">
         <f>J3/0.07</f>
-        <v>179342.85714285713</v>
+        <v>159628.57142857142</v>
       </c>
       <c r="N3" s="5">
         <f>J3/0.08</f>
-        <v>156925</v>
+        <v>139675</v>
       </c>
       <c r="O3" s="2">
         <v>2003</v>
